--- a/Leetcode/Plan.xlsx
+++ b/Leetcode/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codehub\DataStructure\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DBB30A-31DC-462A-A83F-32CD4FDDE6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1B78DD-C531-4C7A-9E3C-A2BB3DCED37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,7 +392,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -405,8 +405,8 @@
         <v>3</v>
       </c>
       <c r="B1" s="2">
-        <f>SUM(C3,C428)</f>
-        <v>0</v>
+        <f>SUM(C3:C450)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -427,6 +427,9 @@
       <c r="B3">
         <v>5</v>
       </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -434,6 +437,9 @@
       </c>
       <c r="B4">
         <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">

--- a/Leetcode/Plan.xlsx
+++ b/Leetcode/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codehub\DataStructure\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1B78DD-C531-4C7A-9E3C-A2BB3DCED37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F44596-5D68-4133-8E90-FF1FFD844F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -405,8 +405,8 @@
         <v>3</v>
       </c>
       <c r="B1" s="2">
-        <f>SUM(C3:C450)</f>
-        <v>12</v>
+        <f>SUM(C3:C451)</f>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -422,45 +422,51 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="B5">
         <v>5</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -468,7 +474,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -476,7 +482,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -484,7 +490,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -492,7 +498,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -500,7 +506,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -508,7 +514,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -516,7 +522,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -524,7 +530,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -532,7 +538,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -540,7 +546,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -548,7 +554,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -556,7 +562,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -564,7 +570,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -572,7 +578,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -580,7 +586,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -588,7 +594,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -596,7 +602,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -604,7 +610,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -612,7 +618,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -620,7 +626,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -628,7 +634,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -636,13 +642,16 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>44247</v>
       </c>
-      <c r="B29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>5</v>
       </c>
@@ -669,6 +678,11 @@
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36">
         <v>5</v>
       </c>
     </row>

--- a/Leetcode/Plan.xlsx
+++ b/Leetcode/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codehub\DataStructure\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F44596-5D68-4133-8E90-FF1FFD844F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07195B29-794C-4E4C-89AA-B94BF34CA6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,7 +392,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -406,7 +406,7 @@
       </c>
       <c r="B1" s="2">
         <f>SUM(C3:C451)</f>
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -471,6 +471,9 @@
       <c r="B7">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -479,6 +482,9 @@
       <c r="B8">
         <v>5</v>
       </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -486,6 +492,9 @@
       </c>
       <c r="B9">
         <v>5</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
